--- a/src/test/java/io/github/agache41/ormpipes/pipes/spreadSheet/xslx/multisheet/ExcelMultisheetTest.xlsx
+++ b/src/test/java/io/github/agache41/ormpipes/pipes/spreadSheet/xslx/multisheet/ExcelMultisheetTest.xlsx
@@ -254,66 +254,66 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="n" s="0">
         <v>-2.147483648E9</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="n" s="0">
         <v>-9.223372036854776E18</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="n" s="0">
         <v>4.9E-324</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" t="n" s="0">
         <v>1.401298464324817E-45</v>
       </c>
-      <c r="F3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="n" s="0">
         <v>44614.0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="n" s="0">
         <v>44614.0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -357,66 +357,66 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="n" s="0">
         <v>-2.147483648E9</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="n" s="0">
         <v>-9.223372036854776E18</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="n" s="0">
         <v>4.9E-324</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" t="n" s="0">
         <v>1.401298464324817E-45</v>
       </c>
-      <c r="F3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="n" s="0">
         <v>44614.0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="n" s="0">
         <v>44614.0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
